--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2692,7 +2693,6 @@
           <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>93.76</t>
@@ -2708,6 +2708,214 @@
       </c>
       <c r="H28" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2921,4 +2922,1428 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004829</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰兴瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4346,4 +4347,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4355,7 +4356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4366,17 +4367,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4386,14 +4407,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.82</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4402,14 +4445,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.2</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4418,14 +4483,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.26</v>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4434,13 +4521,871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5284,7 +5285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,17 +5296,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5315,14 +5336,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.359999999999999</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5331,14 +5374,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.82</v>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5347,14 +5412,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.2</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5363,14 +5450,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.26</v>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5379,13 +5488,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5797,7 +5798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5808,17 +5809,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5828,14 +5849,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.78</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5844,14 +5887,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.359999999999999</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5860,14 +5925,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.82</v>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5876,14 +5963,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -5892,14 +6001,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.26</v>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5908,13 +6039,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>6.68</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>3.78</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>8.359999999999999</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>6.82</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>11.26</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.43</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>45.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4895</t>
+          <t>3.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>46.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3451</t>
+          <t>2.3555</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>华夏蓝筹混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7378</t>
+          <t>1.5356</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5788</t>
+          <t>1.0349</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.09</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5639</t>
+          <t>0.9900</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>博时裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.9553</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>博时成长优势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.31</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5226</t>
+          <t>0.6336</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.4185</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1768</t>
+          <t>0.4114</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -998,32 +1015,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1553</t>
+          <t>0.3953</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004260</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦稳盈增长灵活配置混合</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0939</t>
+          <t>0.3737</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010845</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利波控回报12个月持有期混合</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0930</t>
+          <t>0.3441</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.09</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.1384</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004769</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信价值优先混合</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1222</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011243</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.1094</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0589</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013410</t>
+          <t>013599</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合C</t>
+          <t>华润元大臻选回报混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0547</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>012464</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>博时成长优势混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>970073</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合A</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1378,32 +1395,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>013410</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>博时裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1416,32 +1433,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001303</t>
+          <t>970077</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合A</t>
+          <t>安信资管瑞鑫一年持有期债券A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011244</t>
+          <t>970078</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+          <t>安信资管瑞鑫一年持有期债券B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1492,32 +1509,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002323</t>
+          <t>015950</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合C</t>
+          <t>华夏蓝筹混合（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>519117</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>浦银安盛基本面400指数</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>970074</t>
+          <t>970079</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合C</t>
+          <t>安信资管瑞鑫一年持有期债券C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>013598</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>华润元大臻选回报混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,6 +1659,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3083,7 +4142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4507,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4715,7 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5790,7 +6849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002202-金风科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>13.06</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>6.68</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>3.78</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>8.359999999999999</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.82</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>11.26</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1224 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.93</t>
+          <t>48.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0727</t>
+          <t>2.5114</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>博时裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.83</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3555</t>
+          <t>1.1945</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160311</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏蓝筹混合（LOF）A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5356</t>
+          <t>1.0436</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1998,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>博时成长优势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0349</t>
+          <t>0.8883</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +2036,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>98.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9900</t>
+          <t>0.3817</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2074,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9553</t>
+          <t>0.3689</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2112,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012463</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时成长优势混合A</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.33</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6336</t>
+          <t>0.3578</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2150,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>011527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>博时恒悦6个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4185</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2188,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4114</t>
+          <t>0.1284</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2226,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3953</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1053,32 +2264,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3737</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1091,36 +2302,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>012464</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>博时成长优势混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3441</t>
+          <t>0.0384</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +2340,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>013410</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>博时裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1384</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +2378,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>011528</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>博时恒悦6个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.35</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1222</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +2416,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>970077</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国中证稀土产业ETF</t>
+          <t>安信资管瑞鑫一年持有期债券A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1094</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +2454,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>970078</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>安信资管瑞鑫一年持有期债券B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0589</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1281,376 +2492,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013599</t>
+          <t>970079</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华润元大臻选回报混合C</t>
+          <t>安信资管瑞鑫一年持有期债券C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012464</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时成长优势混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.33</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.05</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>013410</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>970077</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信资管瑞鑫一年持有期债券A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>970078</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>安信资管瑞鑫一年持有期债券B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>015950</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏蓝筹混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>519117</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浦银安盛基本面400指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>970079</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信资管瑞鑫一年持有期债券C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>013598</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华润元大臻选回报混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1715,36 +2586,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>45.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4895</t>
+          <t>3.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1753,32 +2624,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>46.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3451</t>
+          <t>2.3555</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1791,36 +2662,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>华夏蓝筹混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7378</t>
+          <t>1.5356</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1829,36 +2700,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5788</t>
+          <t>1.0349</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1867,36 +2738,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.09</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5639</t>
+          <t>0.9900</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1905,36 +2776,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>博时裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.9553</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1943,36 +2814,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>博时成长优势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.31</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5226</t>
+          <t>0.6336</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1981,36 +2852,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.4185</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2019,36 +2890,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1768</t>
+          <t>0.4114</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2057,32 +2928,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1553</t>
+          <t>0.3953</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2095,36 +2966,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004260</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦稳盈增长灵活配置混合</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0939</t>
+          <t>0.3737</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2133,36 +3004,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010845</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利波控回报12个月持有期混合</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0930</t>
+          <t>0.3441</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2171,36 +3042,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.09</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.1384</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2209,36 +3080,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004769</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信价值优先混合</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1222</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2247,36 +3118,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011243</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.1094</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2285,36 +3156,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0589</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2323,36 +3194,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013410</t>
+          <t>013599</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合C</t>
+          <t>华润元大臻选回报混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0547</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2361,36 +3232,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>012464</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>博时成长优势混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2399,36 +3270,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>970073</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合A</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2437,32 +3308,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>013410</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>博时裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2475,32 +3346,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001303</t>
+          <t>970077</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合A</t>
+          <t>安信资管瑞鑫一年持有期债券A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2513,36 +3384,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011244</t>
+          <t>970078</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+          <t>安信资管瑞鑫一年持有期债券B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2551,32 +3422,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002323</t>
+          <t>015950</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合C</t>
+          <t>华夏蓝筹混合（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2589,36 +3460,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>519117</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>浦银安盛基本面400指数</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2627,36 +3498,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>970074</t>
+          <t>970079</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合C</t>
+          <t>安信资管瑞鑫一年持有期债券C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2665,36 +3536,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>013598</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>华润元大臻选回报混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2703,6 +3572,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4142,7 +6055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5566,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5774,7 +7687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6847,1198 +8760,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0464</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3824</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2972</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0310</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9930</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9930</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6104</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3351</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>040025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安科技动力混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1996</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005037</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华新能源新材料量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010202</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证科技100指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0912</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010203</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证科技100指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0601</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009999</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方中国红利混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>56.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>54.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005038</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华新能源新材料量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>